--- a/US/data/BTS/TRPT/TVT_historical - Urban - Monthly.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Urban - Monthly.xlsx
@@ -3477,13 +3477,13 @@
         <v>37201</v>
       </c>
       <c r="NL2" t="n">
-        <v>47151</v>
+        <v>47134</v>
       </c>
       <c r="NM2" t="n">
-        <v>44831</v>
+        <v>44642</v>
       </c>
       <c r="NN2" t="n">
-        <v>48569</v>
+        <v>48555</v>
       </c>
       <c r="NO2" t="n">
         <v>49424</v>
@@ -3507,10 +3507,14 @@
         <v>46803</v>
       </c>
       <c r="NV2" t="n">
-        <v>42122</v>
-      </c>
-      <c r="NW2" t="inlineStr"/>
-      <c r="NX2" t="inlineStr"/>
+        <v>42123</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>41596</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>49354</v>
+      </c>
       <c r="NY2" t="inlineStr"/>
       <c r="NZ2" t="inlineStr"/>
       <c r="OA2" t="inlineStr"/>
@@ -4650,28 +4654,28 @@
         <v>76324</v>
       </c>
       <c r="NL3" t="n">
-        <v>94233</v>
+        <v>94232</v>
       </c>
       <c r="NM3" t="n">
-        <v>90387</v>
+        <v>90124</v>
       </c>
       <c r="NN3" t="n">
-        <v>98081</v>
+        <v>98076</v>
       </c>
       <c r="NO3" t="n">
         <v>98225</v>
       </c>
       <c r="NP3" t="n">
-        <v>100733</v>
+        <v>100732</v>
       </c>
       <c r="NQ3" t="n">
         <v>99726</v>
       </c>
       <c r="NR3" t="n">
-        <v>96338</v>
+        <v>96337</v>
       </c>
       <c r="NS3" t="n">
-        <v>99285</v>
+        <v>99281</v>
       </c>
       <c r="NT3" t="n">
         <v>92964</v>
@@ -4680,10 +4684,14 @@
         <v>93812</v>
       </c>
       <c r="NV3" t="n">
-        <v>85186</v>
-      </c>
-      <c r="NW3" t="inlineStr"/>
-      <c r="NX3" t="inlineStr"/>
+        <v>85188</v>
+      </c>
+      <c r="NW3" t="n">
+        <v>83936</v>
+      </c>
+      <c r="NX3" t="n">
+        <v>96904</v>
+      </c>
       <c r="NY3" t="inlineStr"/>
       <c r="NZ3" t="inlineStr"/>
       <c r="OA3" t="inlineStr"/>
@@ -5823,16 +5831,16 @@
         <v>36115</v>
       </c>
       <c r="NL4" t="n">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="NM4" t="n">
-        <v>44102</v>
+        <v>44062</v>
       </c>
       <c r="NN4" t="n">
-        <v>47811</v>
+        <v>47806</v>
       </c>
       <c r="NO4" t="n">
-        <v>47605</v>
+        <v>47603</v>
       </c>
       <c r="NP4" t="n">
         <v>48366</v>
@@ -5853,10 +5861,14 @@
         <v>45877</v>
       </c>
       <c r="NV4" t="n">
-        <v>41416</v>
-      </c>
-      <c r="NW4" t="inlineStr"/>
-      <c r="NX4" t="inlineStr"/>
+        <v>41414</v>
+      </c>
+      <c r="NW4" t="n">
+        <v>40249</v>
+      </c>
+      <c r="NX4" t="n">
+        <v>46993</v>
+      </c>
       <c r="NY4" t="inlineStr"/>
       <c r="NZ4" t="inlineStr"/>
       <c r="OA4" t="inlineStr"/>
@@ -6996,28 +7008,28 @@
         <v>149639</v>
       </c>
       <c r="NL5" t="n">
-        <v>186476</v>
+        <v>186452</v>
       </c>
       <c r="NM5" t="n">
-        <v>179320</v>
+        <v>178828</v>
       </c>
       <c r="NN5" t="n">
-        <v>194461</v>
+        <v>194436</v>
       </c>
       <c r="NO5" t="n">
-        <v>195255</v>
+        <v>195253</v>
       </c>
       <c r="NP5" t="n">
-        <v>199706</v>
+        <v>199705</v>
       </c>
       <c r="NQ5" t="n">
         <v>195730</v>
       </c>
       <c r="NR5" t="n">
-        <v>190641</v>
+        <v>190640</v>
       </c>
       <c r="NS5" t="n">
-        <v>196374</v>
+        <v>196370</v>
       </c>
       <c r="NT5" t="n">
         <v>184470</v>
@@ -7028,8 +7040,12 @@
       <c r="NV5" t="n">
         <v>168724</v>
       </c>
-      <c r="NW5" t="inlineStr"/>
-      <c r="NX5" t="inlineStr"/>
+      <c r="NW5" t="n">
+        <v>165781</v>
+      </c>
+      <c r="NX5" t="n">
+        <v>193251</v>
+      </c>
       <c r="NY5" t="inlineStr"/>
       <c r="NZ5" t="inlineStr"/>
       <c r="OA5" t="inlineStr"/>

--- a/US/data/BTS/TRPT/TVT_historical - Urban - Monthly.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Urban - Monthly.xlsx
@@ -3513,9 +3513,11 @@
         <v>41596</v>
       </c>
       <c r="NX2" t="n">
-        <v>49354</v>
-      </c>
-      <c r="NY2" t="inlineStr"/>
+        <v>49357</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>46188</v>
+      </c>
       <c r="NZ2" t="inlineStr"/>
       <c r="OA2" t="inlineStr"/>
       <c r="OB2" t="inlineStr"/>
@@ -4687,12 +4689,14 @@
         <v>85188</v>
       </c>
       <c r="NW3" t="n">
-        <v>83936</v>
+        <v>83935</v>
       </c>
       <c r="NX3" t="n">
-        <v>96904</v>
-      </c>
-      <c r="NY3" t="inlineStr"/>
+        <v>96923</v>
+      </c>
+      <c r="NY3" t="n">
+        <v>91763</v>
+      </c>
       <c r="NZ3" t="inlineStr"/>
       <c r="OA3" t="inlineStr"/>
       <c r="OB3" t="inlineStr"/>
@@ -5867,9 +5871,11 @@
         <v>40249</v>
       </c>
       <c r="NX4" t="n">
-        <v>46993</v>
-      </c>
-      <c r="NY4" t="inlineStr"/>
+        <v>46966</v>
+      </c>
+      <c r="NY4" t="n">
+        <v>45097</v>
+      </c>
       <c r="NZ4" t="inlineStr"/>
       <c r="OA4" t="inlineStr"/>
       <c r="OB4" t="inlineStr"/>
@@ -7044,9 +7050,11 @@
         <v>165781</v>
       </c>
       <c r="NX5" t="n">
-        <v>193251</v>
-      </c>
-      <c r="NY5" t="inlineStr"/>
+        <v>193246</v>
+      </c>
+      <c r="NY5" t="n">
+        <v>183048</v>
+      </c>
       <c r="NZ5" t="inlineStr"/>
       <c r="OA5" t="inlineStr"/>
       <c r="OB5" t="inlineStr"/>
